--- a/Database.xlsx
+++ b/Database.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21421"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8194CC5-82DD-4520-BCDE-5CDDCCCC72D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{755A9D19-6727-4D3D-B2A8-6625AB4CC3DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>user_table</t>
   </si>
@@ -46,9 +46,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>salt</t>
-  </si>
-  <si>
     <t>date_added</t>
   </si>
   <si>
@@ -70,7 +67,7 @@
     <t>planes_id</t>
   </si>
   <si>
-    <t>brand</t>
+    <t>brand_id</t>
   </si>
   <si>
     <t>seats</t>
@@ -89,6 +86,12 @@
   </si>
   <si>
     <t>time_departure</t>
+  </si>
+  <si>
+    <t>brand_table</t>
+  </si>
+  <si>
+    <t>brand_name</t>
   </si>
 </sst>
 </file>
@@ -234,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -245,28 +248,39 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Нормален" xfId="0" builtinId="0"/>
@@ -584,18 +598,18 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="G24" sqref="A24:G24"/>
+      <selection activeCell="E14" sqref="E14:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="26.85546875" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
     <col min="8" max="8" width="24.28515625" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" customWidth="1"/>
     <col min="10" max="11" width="24" customWidth="1"/>
@@ -603,17 +617,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="23.25">
       <c r="A2" s="3" t="s">
@@ -639,9 +653,6 @@
       </c>
       <c r="H2" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="23.25">
@@ -653,7 +664,6 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="23.25">
       <c r="A4" s="2"/>
@@ -664,7 +674,6 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="23.25">
       <c r="A5" s="2"/>
@@ -675,7 +684,6 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="23.25">
       <c r="A6" s="2"/>
@@ -686,7 +694,6 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="23.25">
       <c r="A7" s="2"/>
@@ -697,7 +704,6 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="23.25">
       <c r="A8" s="2"/>
@@ -708,7 +714,6 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="23.25">
       <c r="A9" s="2"/>
@@ -719,7 +724,6 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="23.25">
       <c r="A10" s="4"/>
@@ -729,20 +733,20 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:9" ht="23.25">
-      <c r="A11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9"/>
+      <c r="A11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11"/>
       <c r="C11" s="6"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:9" ht="23.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="4"/>
@@ -760,54 +764,57 @@
       <c r="B14" s="5"/>
       <c r="C14" s="7"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="E14" s="20"/>
     </row>
     <row r="15" spans="1:9" ht="23.25">
       <c r="A15" s="2"/>
       <c r="B15" s="5"/>
       <c r="C15" s="7"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="20"/>
     </row>
     <row r="16" spans="1:9" ht="23.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="E16" s="20"/>
     </row>
     <row r="17" spans="1:9" ht="23.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="20"/>
+    </row>
+    <row r="18" spans="1:9" ht="23.25">
+      <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" ht="23.25">
-      <c r="A18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="E18" s="20"/>
     </row>
     <row r="19" spans="1:9" ht="23.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="E19" s="20"/>
     </row>
     <row r="20" spans="1:9" ht="23.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="E20" s="20"/>
     </row>
     <row r="21" spans="1:9" ht="23.25">
       <c r="A21" s="2"/>
@@ -840,38 +847,38 @@
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9" ht="23.25">
-      <c r="A24" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="13"/>
+      <c r="A24" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="15"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9" ht="23.25">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="16" t="s">
+      <c r="E25" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="F25" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="16" t="s">
+      <c r="G25" s="18" t="s">
         <v>1</v>
       </c>
       <c r="H25" s="4"/>
@@ -883,7 +890,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="14"/>
+      <c r="F26" s="8"/>
       <c r="G26" s="2"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -894,7 +901,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="15"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="2"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -905,7 +912,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="15"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="2"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -916,7 +923,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="15"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="2"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -927,7 +934,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="15"/>
+      <c r="F30" s="9"/>
       <c r="G30" s="2"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -938,10 +945,28 @@
       <c r="C31" s="2"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="15"/>
+      <c r="F31" s="9"/>
       <c r="G31" s="2"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
+    </row>
+    <row r="33" spans="1:4" ht="23.25">
+      <c r="A33" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="12"/>
+    </row>
+    <row r="34" spans="1:4" ht="23.25">
+      <c r="A34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
     </row>
     <row r="39" spans="1:4" ht="23.25">
       <c r="A39" s="4"/>
@@ -959,11 +984,12 @@
       <c r="D42" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A1:I1"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
